--- a/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1940</v>
+        <v>1962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11445</v>
+        <v>12124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01525342306188786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005197222560745808</v>
+        <v>0.005257565143649463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03066851282080352</v>
+        <v>0.03248748436504523</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>20415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12467</v>
+        <v>12300</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31674</v>
+        <v>30365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03473420283476404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02121163454702402</v>
+        <v>0.02092750094079975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05388989123566965</v>
+        <v>0.05166395714325156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>26107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17660</v>
+        <v>16586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40142</v>
+        <v>37503</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02716866893340526</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01837748945541869</v>
+        <v>0.01725993815314678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04177414771467781</v>
+        <v>0.0390276283148143</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>23608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15926</v>
+        <v>16343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34602</v>
+        <v>34685</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06325921698576101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0426767414325671</v>
+        <v>0.04379389652721677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0927189365060662</v>
+        <v>0.0929422712584638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>37819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26708</v>
+        <v>27326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52220</v>
+        <v>51628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0643449536211239</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04544092566524244</v>
+        <v>0.04649247885608074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08884819068530422</v>
+        <v>0.08784070620112425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -857,19 +857,19 @@
         <v>61426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47450</v>
+        <v>49199</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78800</v>
+        <v>79256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0639232981525773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04937933211489432</v>
+        <v>0.05119923882275057</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08200287143754036</v>
+        <v>0.08247756492880638</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>343889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>332918</v>
+        <v>331520</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>352723</v>
+        <v>351810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9214873599523511</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8920885192705375</v>
+        <v>0.8883436164908854</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9451585821872228</v>
+        <v>0.9427123995521969</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>521</v>
@@ -907,19 +907,19 @@
         <v>529515</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>512347</v>
+        <v>513314</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>542870</v>
+        <v>543023</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9009208435441121</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.871710730869845</v>
+        <v>0.8733563749347026</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9236426708422751</v>
+        <v>0.9239037320547139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>888</v>
@@ -928,19 +928,19 @@
         <v>873404</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>854644</v>
+        <v>853183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>890382</v>
+        <v>889104</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9089080329140174</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8893854021266726</v>
+        <v>0.8878643635165877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9265757125432664</v>
+        <v>0.9252458697141362</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>4146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9894</v>
+        <v>8284</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04706543548250119</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01823610855930865</v>
+        <v>0.01825443159693021</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1123252567425034</v>
+        <v>0.09404760719689861</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7336</v>
+        <v>7901</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03916415533795174</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1179231142719636</v>
+        <v>0.1270046106106091</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1137,19 +1137,19 @@
         <v>6582</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2521</v>
+        <v>2497</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12941</v>
+        <v>13909</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04379483947180375</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0167736006617188</v>
+        <v>0.01661380808406639</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08610664696497443</v>
+        <v>0.09254205397471085</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>83937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78189</v>
+        <v>79799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86477</v>
+        <v>86475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9529345645174988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8876747432574966</v>
+        <v>0.9059523928031014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9817638914406913</v>
+        <v>0.9817455684030698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1187,19 +1187,19 @@
         <v>58634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52773</v>
+        <v>52849</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61132</v>
+        <v>61106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9424939369803582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8482697776675086</v>
+        <v>0.8494930481708206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9826390406082569</v>
+        <v>0.9822290869717711</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1208,19 +1208,19 @@
         <v>142572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135294</v>
+        <v>135093</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147063</v>
+        <v>147333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9486128502955692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9001863873037695</v>
+        <v>0.8988522607864788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9784944042043241</v>
+        <v>0.9802923009419778</v>
       </c>
     </row>
     <row r="11">
@@ -1528,19 +1528,19 @@
         <v>5692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12069</v>
+        <v>11567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01132894410596954</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003874689723880378</v>
+        <v>0.003869835755158549</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02401942420545614</v>
+        <v>0.02302101554378607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1549,19 +1549,19 @@
         <v>21556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13845</v>
+        <v>13532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32953</v>
+        <v>33402</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03184804191901163</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02045554639608937</v>
+        <v>0.01999259134630678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0486861012785144</v>
+        <v>0.0493493636031853</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1570,19 +1570,19 @@
         <v>27249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18760</v>
+        <v>17585</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40631</v>
+        <v>40036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02310550045897313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01590757757569539</v>
+        <v>0.01491137963309026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03445296765629277</v>
+        <v>0.0339485363653978</v>
       </c>
     </row>
     <row r="17">
@@ -1599,19 +1599,19 @@
         <v>27753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19302</v>
+        <v>19910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38194</v>
+        <v>38990</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05523418290385554</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03841504804566999</v>
+        <v>0.03962516859662595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07601334304915894</v>
+        <v>0.07759732741850235</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -1620,19 +1620,19 @@
         <v>40255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28043</v>
+        <v>28881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54119</v>
+        <v>54270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05947501065894207</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04143187769089356</v>
+        <v>0.04267060323449964</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07995810084155357</v>
+        <v>0.08018191468050861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -1641,19 +1641,19 @@
         <v>68008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>52953</v>
+        <v>52213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86959</v>
+        <v>84147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05766812749031852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04490205460300742</v>
+        <v>0.04427419934232354</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0737373691828845</v>
+        <v>0.07135308655692045</v>
       </c>
     </row>
     <row r="18">
@@ -1670,19 +1670,19 @@
         <v>469020</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>456952</v>
+        <v>456812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>478519</v>
+        <v>478663</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.933436872990175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9094181622058349</v>
+        <v>0.9091406844511363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9523404611833833</v>
+        <v>0.9526271447601735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>605</v>
@@ -1691,19 +1691,19 @@
         <v>615031</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>597285</v>
+        <v>597355</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>630262</v>
+        <v>629313</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9086769474220463</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8824591265233203</v>
+        <v>0.8825617332186121</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9311800422252209</v>
+        <v>0.9297782820646473</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1091</v>
@@ -1712,19 +1712,19 @@
         <v>1084051</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1062720</v>
+        <v>1064970</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1100623</v>
+        <v>1102781</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9192263720507083</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9011382993794518</v>
+        <v>0.9030464478631599</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9332788536678934</v>
+        <v>0.9351087927860555</v>
       </c>
     </row>
     <row r="19">
@@ -2055,19 +2055,19 @@
         <v>7313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3129</v>
+        <v>3088</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14514</v>
+        <v>13924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0176478841074448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007549698313909039</v>
+        <v>0.007451041936792076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03502529183406426</v>
+        <v>0.03360150450271263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -2076,19 +2076,19 @@
         <v>41057</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29763</v>
+        <v>28874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54777</v>
+        <v>54789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06470352561258563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04690512218736417</v>
+        <v>0.04550417471656505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08632481878949246</v>
+        <v>0.08634390201992878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2097,19 +2097,19 @@
         <v>48371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36002</v>
+        <v>36220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64616</v>
+        <v>64131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0461136082886155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03432186531665331</v>
+        <v>0.03453028222132787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06160158295168728</v>
+        <v>0.06113901568474382</v>
       </c>
     </row>
     <row r="5">
@@ -2126,19 +2126,19 @@
         <v>41846</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28995</v>
+        <v>28678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57691</v>
+        <v>57198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1009807899419529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06996850595592913</v>
+        <v>0.06920425945027028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1392172664474838</v>
+        <v>0.1380274954299053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -2147,19 +2147,19 @@
         <v>66635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51511</v>
+        <v>51800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82238</v>
+        <v>83373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1050114991023341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08117731167861038</v>
+        <v>0.08163326498864931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1296009620829462</v>
+        <v>0.1313895350820997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -2168,19 +2168,19 @@
         <v>108481</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87650</v>
+        <v>88335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130681</v>
+        <v>132277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1034191172401026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08356027546023882</v>
+        <v>0.08421347323393012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1245833170212779</v>
+        <v>0.1261052734922767</v>
       </c>
     </row>
     <row r="6">
@@ -2197,19 +2197,19 @@
         <v>365239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>347520</v>
+        <v>350063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>378235</v>
+        <v>379851</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8813713259506023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8386147823407009</v>
+        <v>0.8447514991394266</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9127332267324149</v>
+        <v>0.9166328931192862</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>497</v>
@@ -2218,19 +2218,19 @@
         <v>526853</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>507103</v>
+        <v>507471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>545224</v>
+        <v>546799</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8302849752850803</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7991594669298643</v>
+        <v>0.7997398955530027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8592366366308211</v>
+        <v>0.8617175145720337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>835</v>
@@ -2239,19 +2239,19 @@
         <v>892091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>866537</v>
+        <v>866781</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>915872</v>
+        <v>917977</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8504672744712819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8261061389213076</v>
+        <v>0.8263383756367439</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8731392834244549</v>
+        <v>0.875145718898119</v>
       </c>
     </row>
     <row r="7">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6253</v>
+        <v>7018</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01707918953788625</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05269630592072651</v>
+        <v>0.05913981777897378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -2364,19 +2364,19 @@
         <v>3387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9592</v>
+        <v>10711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04077131405319772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01212445394168797</v>
+        <v>0.01217850659212952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1154607671092424</v>
+        <v>0.1289351128581824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -2385,19 +2385,19 @@
         <v>5414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12790</v>
+        <v>13201</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0268353986628263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01020722779275694</v>
+        <v>0.01019070492122326</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06339906372719852</v>
+        <v>0.06543689235369458</v>
       </c>
     </row>
     <row r="9">
@@ -2414,19 +2414,19 @@
         <v>3241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8566</v>
+        <v>8836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02731178763640468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008497028719889808</v>
+        <v>0.008785148560950709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07218326076364355</v>
+        <v>0.07446060632944811</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -2435,19 +2435,19 @@
         <v>3978</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9270</v>
+        <v>9218</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04788672691642342</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01204689097914873</v>
+        <v>0.01193093408723254</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1115929777929698</v>
+        <v>0.1109568872524233</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -2456,19 +2456,19 @@
         <v>7219</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3043</v>
+        <v>3072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14244</v>
+        <v>14955</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03578436721528874</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01508165960469069</v>
+        <v>0.01522768832425767</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07060534118830029</v>
+        <v>0.07413079149638371</v>
       </c>
     </row>
     <row r="10">
@@ -2485,19 +2485,19 @@
         <v>113397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107356</v>
+        <v>106796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116603</v>
+        <v>116560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.955609022825709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.904700196614186</v>
+        <v>0.8999797036337956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9826222011371913</v>
+        <v>0.9822574364499769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2506,19 +2506,19 @@
         <v>75709</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69641</v>
+        <v>68129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79987</v>
+        <v>79897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9113419590303788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8382979326329083</v>
+        <v>0.8201037469518142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9628414537797259</v>
+        <v>0.9617594910002137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -2527,19 +2527,19 @@
         <v>189106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179433</v>
+        <v>180726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194736</v>
+        <v>194602</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.937380234121885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8894319099442022</v>
+        <v>0.895838909301213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9652855064394994</v>
+        <v>0.9646213747016451</v>
       </c>
     </row>
     <row r="11">
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5282</v>
+        <v>6578</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05224876425250372</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2374578715023859</v>
+        <v>0.2956794069883159</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5632</v>
+        <v>7180</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02380809287358612</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1153697411395201</v>
+        <v>0.1470592094649104</v>
       </c>
     </row>
     <row r="13">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6958</v>
+        <v>6794</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09716021279848021</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3127787448344634</v>
+        <v>0.3053866689301864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7014</v>
+        <v>7041</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04427280535754988</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1436595780646094</v>
+        <v>0.14421213819883</v>
       </c>
     </row>
     <row r="14">
@@ -2770,19 +2770,19 @@
         <v>18922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13915</v>
+        <v>13341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21225</v>
+        <v>21239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8505910229490161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6255274562578337</v>
+        <v>0.5997134312748561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9541062882252358</v>
+        <v>0.9547436337709195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -2791,19 +2791,19 @@
         <v>45497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40384</v>
+        <v>39930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47866</v>
+        <v>47808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9319191017688639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8271776337745185</v>
+        <v>0.817881568521279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9804442604271526</v>
+        <v>0.9792456257486483</v>
       </c>
     </row>
     <row r="15">
@@ -2895,19 +2895,19 @@
         <v>9340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4110</v>
+        <v>4442</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16122</v>
+        <v>17561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01668928192883238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007344443479776142</v>
+        <v>0.00793657209537881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0288075253360286</v>
+        <v>0.03137932105173549</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -2916,19 +2916,19 @@
         <v>45607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34473</v>
+        <v>33290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60319</v>
+        <v>59929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06164185537493951</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04659422448127488</v>
+        <v>0.04499522896744671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08152740803364582</v>
+        <v>0.0809992834044431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -2937,19 +2937,19 @@
         <v>54947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41416</v>
+        <v>41000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72719</v>
+        <v>71877</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04228280456595925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03187078368624131</v>
+        <v>0.03155079969430623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05595926771323132</v>
+        <v>0.05531116316509694</v>
       </c>
     </row>
     <row r="17">
@@ -2966,19 +2966,19 @@
         <v>45087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31532</v>
+        <v>32976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60545</v>
+        <v>61720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08056499465765664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05634292766091453</v>
+        <v>0.0589234341245168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1081855025953456</v>
+        <v>0.1102855147548584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -2987,19 +2987,19 @@
         <v>72774</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57235</v>
+        <v>57415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91522</v>
+        <v>90216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0983612773658912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0773592560256305</v>
+        <v>0.07760132925770449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1237004885793934</v>
+        <v>0.1219361103460461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -3008,19 +3008,19 @@
         <v>117861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>97499</v>
+        <v>96002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>143160</v>
+        <v>140671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09069721912075586</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07502761285105564</v>
+        <v>0.0738762168525834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1101651862096513</v>
+        <v>0.1082497528233058</v>
       </c>
     </row>
     <row r="18">
@@ -3037,19 +3037,19 @@
         <v>505210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>488697</v>
+        <v>488107</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>519736</v>
+        <v>518090</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.902745723413511</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8732386758232763</v>
+        <v>0.8721853117917192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9287026310801871</v>
+        <v>0.9257599764123234</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>582</v>
@@ -3058,19 +3058,19 @@
         <v>621484</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>600383</v>
+        <v>600184</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>640513</v>
+        <v>640880</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8399968672591693</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8114764676785616</v>
+        <v>0.811206917203696</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8657157136471352</v>
+        <v>0.86621195575669</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1041</v>
@@ -3079,19 +3079,19 @@
         <v>1126694</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1098044</v>
+        <v>1100063</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1151037</v>
+        <v>1150152</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8670199763132849</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.844973119269915</v>
+        <v>0.84652684404972</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8857526597379631</v>
+        <v>0.8850713898205954</v>
       </c>
     </row>
     <row r="19">
@@ -3422,19 +3422,19 @@
         <v>7951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3565</v>
+        <v>3658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14310</v>
+        <v>13985</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0224662779751163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01007397453373624</v>
+        <v>0.01033640775031906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04043405504652004</v>
+        <v>0.03951762917917725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3443,19 +3443,19 @@
         <v>30291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19820</v>
+        <v>18735</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43806</v>
+        <v>44401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05460265715920152</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03572800514733561</v>
+        <v>0.0337710335709022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07896483385253283</v>
+        <v>0.08003614955129762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3464,19 +3464,19 @@
         <v>38242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27285</v>
+        <v>26692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55293</v>
+        <v>51237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0420862781217602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03002771971198532</v>
+        <v>0.02937536795474101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06085131866227535</v>
+        <v>0.05638717681404323</v>
       </c>
     </row>
     <row r="5">
@@ -3493,19 +3493,19 @@
         <v>32059</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22439</v>
+        <v>22997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43174</v>
+        <v>43069</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09058660032204421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06340417119873747</v>
+        <v>0.06498274687534214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1219943359279482</v>
+        <v>0.1216989245708254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -3514,19 +3514,19 @@
         <v>64227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49639</v>
+        <v>48938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81371</v>
+        <v>82615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.11577500993115</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08947927729925471</v>
+        <v>0.08821437630907561</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1466792503924859</v>
+        <v>0.1489205086934855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -3535,19 +3535,19 @@
         <v>96286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77251</v>
+        <v>78033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>116309</v>
+        <v>116660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.105964704911659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0850167884818615</v>
+        <v>0.08587685564412809</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1280013443877981</v>
+        <v>0.1283873339422732</v>
       </c>
     </row>
     <row r="6">
@@ -3564,19 +3564,19 @@
         <v>313891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>301893</v>
+        <v>301701</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>324689</v>
+        <v>324165</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8869471217028395</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8530438924463132</v>
+        <v>0.8525010620748843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9174578230506258</v>
+        <v>0.915976337377812</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>395</v>
@@ -3585,19 +3585,19 @@
         <v>460239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>440415</v>
+        <v>437929</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>478733</v>
+        <v>477889</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8296223329096485</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7938876928718659</v>
+        <v>0.7894063563419466</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8629597203235927</v>
+        <v>0.8614382082516259</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>736</v>
@@ -3606,19 +3606,19 @@
         <v>774130</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>750547</v>
+        <v>748298</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>795640</v>
+        <v>793599</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8519490169665808</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8259953799457193</v>
+        <v>0.8235200866506538</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8756210075820064</v>
+        <v>0.873375174671294</v>
       </c>
     </row>
     <row r="7">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4501</v>
+        <v>4483</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00463448816004773</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02337539010893146</v>
+        <v>0.02328474193129933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3731,19 +3731,19 @@
         <v>4183</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9590</v>
+        <v>10443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02224157696377359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005588009080749304</v>
+        <v>0.005679992430958434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05099104465014474</v>
+        <v>0.05552416223495589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3752,19 +3752,19 @@
         <v>5075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1925</v>
+        <v>2011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10616</v>
+        <v>11639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01333491769626584</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005057174281519292</v>
+        <v>0.005282500915495806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02789160009224284</v>
+        <v>0.03058147593101106</v>
       </c>
     </row>
     <row r="9">
@@ -3781,19 +3781,19 @@
         <v>7199</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3345</v>
+        <v>3221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13796</v>
+        <v>13753</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03739209676862956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01737427174022626</v>
+        <v>0.0167315627170679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0716580289712002</v>
+        <v>0.07143312932993777</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -3802,19 +3802,19 @@
         <v>9757</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5213</v>
+        <v>4410</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17570</v>
+        <v>17457</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05187962713062334</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02771664135829888</v>
+        <v>0.02344576004615368</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0934204216196137</v>
+        <v>0.0928182793947796</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -3823,19 +3823,19 @@
         <v>16956</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10015</v>
+        <v>10668</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26011</v>
+        <v>27363</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0445510165919722</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02631426131033341</v>
+        <v>0.02802893273947054</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06834146419288718</v>
+        <v>0.07189399690826213</v>
       </c>
     </row>
     <row r="10">
@@ -3852,19 +3852,19 @@
         <v>184441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177852</v>
+        <v>177752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188449</v>
+        <v>189177</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9579734150713227</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.923755435072084</v>
+        <v>0.9232343713250812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9787908513606658</v>
+        <v>0.9825760115792296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -3873,19 +3873,19 @@
         <v>174134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165185</v>
+        <v>164744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180200</v>
+        <v>180378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9258787959056031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8782961509746489</v>
+        <v>0.8759540158640691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9581311282916309</v>
+        <v>0.9590815337043271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>332</v>
@@ -3894,19 +3894,19 @@
         <v>358574</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>348690</v>
+        <v>347460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>366371</v>
+        <v>365600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9421140657117619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9161444295576286</v>
+        <v>0.9129137445678346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9626001528516422</v>
+        <v>0.9605741515696153</v>
       </c>
     </row>
     <row r="11">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8163</v>
+        <v>8808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04251566819170142</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1942251268764182</v>
+        <v>0.2095740298676452</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4066,19 +4066,19 @@
         <v>3671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>967</v>
+        <v>1071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9790</v>
+        <v>10337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1090083969932465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.028704273889995</v>
+        <v>0.0318036320082471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.290741220099625</v>
+        <v>0.3069593646649112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -4087,19 +4087,19 @@
         <v>5458</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1392</v>
+        <v>1418</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12487</v>
+        <v>13008</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07209273286034201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01839391294734753</v>
+        <v>0.0187323905953936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1649528758077194</v>
+        <v>0.1718277444134031</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>40242</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33866</v>
+        <v>33221</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>42029</v>
@@ -4125,7 +4125,7 @@
         <v>0.9574843318082986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8057748731235819</v>
+        <v>0.7904259701323545</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,19 +4137,19 @@
         <v>30003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23884</v>
+        <v>23337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32707</v>
+        <v>32603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8909916030067535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.709258779900375</v>
+        <v>0.6930406353350888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.971295726110005</v>
+        <v>0.9681963679917529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -4158,19 +4158,19 @@
         <v>70245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63216</v>
+        <v>62695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74311</v>
+        <v>74285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.927907267139658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8350471241922804</v>
+        <v>0.828172255586597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9816060870526525</v>
+        <v>0.9812676094046066</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>8843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4287</v>
+        <v>4426</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15119</v>
+        <v>16688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01502752144211396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007284920173415934</v>
+        <v>0.00752208155918995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02569301709050142</v>
+        <v>0.02835917608567952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -4283,19 +4283,19 @@
         <v>34474</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23127</v>
+        <v>23517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48465</v>
+        <v>49147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04439670418186038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02978321024128583</v>
+        <v>0.03028534939951439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06241447034283368</v>
+        <v>0.06329213417789255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -4304,19 +4304,19 @@
         <v>43317</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31597</v>
+        <v>30991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59900</v>
+        <v>59562</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03173510824406518</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02314887280217117</v>
+        <v>0.02270487772475961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04388414651335787</v>
+        <v>0.04363588733616305</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>41045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30854</v>
+        <v>29628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54573</v>
+        <v>52798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06974920434798129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05243124222664611</v>
+        <v>0.0503485995651634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09273786918627393</v>
+        <v>0.08972148836066528</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -4354,19 +4354,19 @@
         <v>77655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60068</v>
+        <v>61728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96221</v>
+        <v>98676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1000057274345882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07735703718609518</v>
+        <v>0.07949438119166481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1239152683312692</v>
+        <v>0.1270773005270602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -4375,19 +4375,19 @@
         <v>118700</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100450</v>
+        <v>99985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142536</v>
+        <v>144353</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08696158272004258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07359166434290067</v>
+        <v>0.07325116261759021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1044240894002964</v>
+        <v>0.1057553350211054</v>
       </c>
     </row>
     <row r="18">
@@ -4404,19 +4404,19 @@
         <v>538575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>524240</v>
+        <v>526290</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>550091</v>
+        <v>550286</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9152232742099048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8908623883301059</v>
+        <v>0.8943472283072408</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.934792250659595</v>
+        <v>0.9351242879263688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>562</v>
@@ -4425,19 +4425,19 @@
         <v>664376</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>641800</v>
+        <v>642487</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>684298</v>
+        <v>685553</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8555975683835514</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8265245101054436</v>
+        <v>0.8274085477305555</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.881253250149328</v>
+        <v>0.8828698048296009</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1131</v>
@@ -4446,19 +4446,19 @@
         <v>1202951</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1179090</v>
+        <v>1173870</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1225531</v>
+        <v>1226303</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8813033090358923</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8638221253519746</v>
+        <v>0.8599982212461645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8978459986278111</v>
+        <v>0.8984117037469761</v>
       </c>
     </row>
     <row r="19">
@@ -4789,19 +4789,19 @@
         <v>12250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8102</v>
+        <v>7747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18020</v>
+        <v>18582</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04232330288602528</v>
+        <v>0.04232330288602529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02799288611978121</v>
+        <v>0.02676461008444459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06225627111082734</v>
+        <v>0.06419805555159935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -4810,19 +4810,19 @@
         <v>38291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29391</v>
+        <v>29969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49086</v>
+        <v>48546</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07123113564905588</v>
+        <v>0.07123113564905589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05467423570744858</v>
+        <v>0.05574997614190719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09131246635538831</v>
+        <v>0.09030793101085575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -4831,19 +4831,19 @@
         <v>50541</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40419</v>
+        <v>40376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63118</v>
+        <v>61385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06111365563826596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04887381141001656</v>
+        <v>0.04882225219832106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07632168207312505</v>
+        <v>0.0742257159977953</v>
       </c>
     </row>
     <row r="5">
@@ -4860,19 +4860,19 @@
         <v>26153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19084</v>
+        <v>18674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36659</v>
+        <v>35468</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09035489189272766</v>
+        <v>0.0903548918927277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06593489045010305</v>
+        <v>0.06451815840944401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1266546759352196</v>
+        <v>0.1225390893243167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -4881,19 +4881,19 @@
         <v>73376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62522</v>
+        <v>62299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89057</v>
+        <v>86705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1364994235302522</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1163083698582586</v>
+        <v>0.1158928732142463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1656689473707378</v>
+        <v>0.1612946256196207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -4902,19 +4902,19 @@
         <v>99529</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85422</v>
+        <v>84506</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113971</v>
+        <v>115890</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1203492548103411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1032914054490469</v>
+        <v>0.1021836752590079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1378124461329194</v>
+        <v>0.1401330756608885</v>
       </c>
     </row>
     <row r="6">
@@ -4931,19 +4931,19 @@
         <v>251039</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>239487</v>
+        <v>241534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>259212</v>
+        <v>259997</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8673218052212469</v>
+        <v>0.8673218052212471</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8274095970502394</v>
+        <v>0.8344818931949157</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8955589903483557</v>
+        <v>0.8982700999652995</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>818</v>
@@ -4952,19 +4952,19 @@
         <v>425890</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>410652</v>
+        <v>410538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>439580</v>
+        <v>439487</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7922694408206918</v>
+        <v>0.7922694408206917</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.763921836056929</v>
+        <v>0.7637112507101558</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8177359609924094</v>
+        <v>0.8175641474434422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1183</v>
@@ -4973,19 +4973,19 @@
         <v>676930</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>658987</v>
+        <v>659814</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>694647</v>
+        <v>694938</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8185370895513929</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7968402985849575</v>
+        <v>0.797840704809797</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8399599394310717</v>
+        <v>0.840312408863552</v>
       </c>
     </row>
     <row r="7">
@@ -5077,19 +5077,19 @@
         <v>4576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1771</v>
+        <v>2159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8829</v>
+        <v>9677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01506181279893581</v>
+        <v>0.01506181279893582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005828063639121468</v>
+        <v>0.007106415620796248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02905926266125204</v>
+        <v>0.03185163569333893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -5098,19 +5098,19 @@
         <v>4996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2424</v>
+        <v>2339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9827</v>
+        <v>9911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01799554303069898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008729623868338674</v>
+        <v>0.008423003805379537</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03539545150757645</v>
+        <v>0.03569477401628048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -5119,19 +5119,19 @@
         <v>9573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5384</v>
+        <v>5573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15533</v>
+        <v>15188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01646263577914598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009258971117207741</v>
+        <v>0.009583737461978693</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02671303370298221</v>
+        <v>0.0261196965129824</v>
       </c>
     </row>
     <row r="9">
@@ -5148,19 +5148,19 @@
         <v>23997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17165</v>
+        <v>16799</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33820</v>
+        <v>31869</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07898224356591402</v>
+        <v>0.07898224356591403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0564962945261601</v>
+        <v>0.05529076169246701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1113151739253201</v>
+        <v>0.1048936461211805</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -5169,19 +5169,19 @@
         <v>23772</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18083</v>
+        <v>17919</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31714</v>
+        <v>31756</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0856199728133432</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06512850621526134</v>
+        <v>0.06454081159092277</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1142244285624334</v>
+        <v>0.114376157511554</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>81</v>
@@ -5190,19 +5190,19 @@
         <v>47769</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37917</v>
+        <v>37420</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58787</v>
+        <v>58384</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08215168415235258</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06520892106943794</v>
+        <v>0.06435441599923278</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1011005046915332</v>
+        <v>0.1004080375202737</v>
       </c>
     </row>
     <row r="10">
@@ -5219,19 +5219,19 @@
         <v>275252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>264465</v>
+        <v>265999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>283021</v>
+        <v>283232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9059559436351501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8704509588102569</v>
+        <v>0.875501994569469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9315270961908242</v>
+        <v>0.9322213207777922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>474</v>
@@ -5240,19 +5240,19 @@
         <v>248878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>239645</v>
+        <v>239819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255047</v>
+        <v>255705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8963844841559578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8631298283792349</v>
+        <v>0.8637589410743824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9186050593138392</v>
+        <v>0.9209736679612105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>858</v>
@@ -5261,19 +5261,19 @@
         <v>524130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>512575</v>
+        <v>512863</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>535814</v>
+        <v>535118</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9013856800685014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8815149291663134</v>
+        <v>0.8820100148073363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9214807472885742</v>
+        <v>0.9202837511573476</v>
       </c>
     </row>
     <row r="11">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4813</v>
+        <v>4101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007299531773606262</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04048301755294946</v>
+        <v>0.03449980804504072</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4545</v>
+        <v>4015</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009029338277339535</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05485258038925173</v>
+        <v>0.04845852639416116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5111</v>
+        <v>5575</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008009982024310823</v>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02533751749522138</v>
+        <v>0.02763440398854099</v>
       </c>
     </row>
     <row r="13">
@@ -5436,19 +5436,19 @@
         <v>7733</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4045</v>
+        <v>3896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13230</v>
+        <v>13167</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06504590701785748</v>
+        <v>0.06504590701785749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03402917228643022</v>
+        <v>0.03276810647456563</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1112893253680159</v>
+        <v>0.1107556565240577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5457,19 +5457,19 @@
         <v>8257</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4462</v>
+        <v>4853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12358</v>
+        <v>12675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09965247698295093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05385757123880736</v>
+        <v>0.05857197823379726</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1491462277543727</v>
+        <v>0.1529724164182349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -5478,19 +5478,19 @@
         <v>15989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10057</v>
+        <v>11056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22648</v>
+        <v>22783</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07925919980792591</v>
+        <v>0.0792591998079259</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04985283884088427</v>
+        <v>0.0548045205028312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1122651441556483</v>
+        <v>0.1129354785137727</v>
       </c>
     </row>
     <row r="14">
@@ -5507,19 +5507,19 @@
         <v>110281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104522</v>
+        <v>104227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114379</v>
+        <v>114565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9276545612085363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8792135723686295</v>
+        <v>0.8767357893278498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9621277766190482</v>
+        <v>0.9636922824647146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -5528,19 +5528,19 @@
         <v>73850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69492</v>
+        <v>68947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77855</v>
+        <v>77254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8913181847397095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8387170655285997</v>
+        <v>0.8321434232522646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9396479592223325</v>
+        <v>0.9324049050304307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -5549,19 +5549,19 @@
         <v>184131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177461</v>
+        <v>177133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190027</v>
+        <v>189269</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9127308181677634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.879669518031898</v>
+        <v>0.8780434831217294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9419609703157659</v>
+        <v>0.9382002011287021</v>
       </c>
     </row>
     <row r="15">
@@ -5653,19 +5653,19 @@
         <v>17694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12207</v>
+        <v>11671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25278</v>
+        <v>24941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02484607028102377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01714133571992448</v>
+        <v>0.01638811474194536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03549515347800956</v>
+        <v>0.03502222837332293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -5674,19 +5674,19 @@
         <v>44035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34736</v>
+        <v>35188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54541</v>
+        <v>54660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04903393220398816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03867876218476923</v>
+        <v>0.03918245997351734</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06073191202300283</v>
+        <v>0.06086417226838753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -5695,19 +5695,19 @@
         <v>61729</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50691</v>
+        <v>50646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75871</v>
+        <v>74484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03833633138645525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03148092511739601</v>
+        <v>0.03145279314074696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04711877697480364</v>
+        <v>0.04625712789656939</v>
       </c>
     </row>
     <row r="17">
@@ -5724,19 +5724,19 @@
         <v>57882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46563</v>
+        <v>46602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71004</v>
+        <v>71420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08127806020731768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06538323809292973</v>
+        <v>0.06543828865195241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09970353122308949</v>
+        <v>0.1002877649445755</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -5745,19 +5745,19 @@
         <v>105405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91409</v>
+        <v>93417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>119766</v>
+        <v>120608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.11736989875844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1017854182607655</v>
+        <v>0.1040216123885942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1333611754404347</v>
+        <v>0.1342982888106562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>276</v>
@@ -5766,19 +5766,19 @@
         <v>163287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143554</v>
+        <v>145119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>181608</v>
+        <v>184010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1014075089109858</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08915274208060432</v>
+        <v>0.09012466056695839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.112785586229405</v>
+        <v>0.1142772204553636</v>
       </c>
     </row>
     <row r="18">
@@ -5795,19 +5795,19 @@
         <v>636573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>622579</v>
+        <v>621923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>649571</v>
+        <v>649132</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8938758695116588</v>
+        <v>0.8938758695116585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8742251471695769</v>
+        <v>0.8733040620330592</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9121283708535955</v>
+        <v>0.9115113492646325</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1428</v>
@@ -5816,19 +5816,19 @@
         <v>748618</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>731385</v>
+        <v>730710</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>763879</v>
+        <v>763327</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8335961690375718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8144077645636956</v>
+        <v>0.8136560003510784</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8505900243843907</v>
+        <v>0.8499752727955767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2334</v>
@@ -5837,19 +5837,19 @@
         <v>1385190</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1364539</v>
+        <v>1361539</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1407014</v>
+        <v>1406334</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8602561597025589</v>
+        <v>0.860256159702559</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8474308361303943</v>
+        <v>0.8455679605995646</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.873809579579518</v>
+        <v>0.8733869448733366</v>
       </c>
     </row>
     <row r="19">
